--- a/Data/Nisqually/Nisqually_Fishery_Data_from_Craig.xlsx
+++ b/Data/Nisqually/Nisqually_Fishery_Data_from_Craig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Allyn\Documents\GitHub\PinnipedCaseStudies\Data\Nisqually\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA30EA-016B-426B-9241-90048CFDBCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3C935D-2ACF-4CB7-8B2D-F03FD1BC2BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="5940" windowWidth="24720" windowHeight="14355" activeTab="1" xr2:uid="{5A32437D-017A-4A41-BC77-A14D66A07C16}"/>
   </bookViews>
@@ -722,7 +722,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,7 +824,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11811,7 +11810,7 @@
   </sheetPr>
   <dimension ref="A1:AC430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
@@ -14184,16 +14183,16 @@
       <c r="Y28">
         <v>318</v>
       </c>
-      <c r="Z28" s="49">
+      <c r="Z28">
         <v>57</v>
       </c>
-      <c r="AA28" s="49">
+      <c r="AA28">
         <v>48.65625</v>
       </c>
-      <c r="AB28" s="49">
+      <c r="AB28">
         <v>10.8125</v>
       </c>
-      <c r="AC28" s="49">
+      <c r="AC28">
         <v>4.5</v>
       </c>
     </row>
@@ -14272,16 +14271,16 @@
       <c r="Y29">
         <v>319</v>
       </c>
-      <c r="Z29" s="49">
+      <c r="Z29">
         <v>24.5</v>
       </c>
-      <c r="AA29" s="49">
+      <c r="AA29">
         <v>40.09375</v>
       </c>
-      <c r="AB29" s="49">
+      <c r="AB29">
         <v>7.9583333333333339</v>
       </c>
-      <c r="AC29" s="49">
+      <c r="AC29">
         <v>4.5</v>
       </c>
     </row>
@@ -14360,16 +14359,16 @@
       <c r="Y30">
         <v>320</v>
       </c>
-      <c r="Z30" s="49">
+      <c r="Z30">
         <v>79</v>
       </c>
-      <c r="AA30" s="49">
+      <c r="AA30">
         <v>79.050000000000011</v>
       </c>
-      <c r="AB30" s="49">
+      <c r="AB30">
         <v>12.53402777777778</v>
       </c>
-      <c r="AC30" s="49">
+      <c r="AC30">
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -14448,16 +14447,16 @@
       <c r="Y31">
         <v>321</v>
       </c>
-      <c r="Z31" s="49">
+      <c r="Z31">
         <v>115.2</v>
       </c>
-      <c r="AA31" s="49">
+      <c r="AA31">
         <v>101.49973484848485</v>
       </c>
-      <c r="AB31" s="49">
+      <c r="AB31">
         <v>16.142532051282053</v>
       </c>
-      <c r="AC31" s="49">
+      <c r="AC31">
         <v>5</v>
       </c>
     </row>
@@ -14536,16 +14535,16 @@
       <c r="Y32">
         <v>322</v>
       </c>
-      <c r="Z32" s="49">
+      <c r="Z32">
         <v>76.599999999999994</v>
       </c>
-      <c r="AA32" s="49">
+      <c r="AA32">
         <v>109.0847356809857</v>
       </c>
-      <c r="AB32" s="49">
+      <c r="AB32">
         <v>14.291778083028083</v>
       </c>
-      <c r="AC32" s="49">
+      <c r="AC32">
         <v>6.3</v>
       </c>
     </row>
@@ -14615,16 +14614,16 @@
       <c r="Y33">
         <v>323</v>
       </c>
-      <c r="Z33" s="49">
+      <c r="Z33">
         <v>70.8</v>
       </c>
-      <c r="AA33" s="49">
+      <c r="AA33">
         <v>115.62273483460986</v>
       </c>
-      <c r="AB33" s="49">
+      <c r="AB33">
         <v>19.440468559218562</v>
       </c>
-      <c r="AC33" s="49">
+      <c r="AC33">
         <v>5.9</v>
       </c>
     </row>
@@ -14703,16 +14702,16 @@
       <c r="Y34">
         <v>324</v>
       </c>
-      <c r="Z34" s="49">
+      <c r="Z34">
         <v>133.5</v>
       </c>
-      <c r="AA34" s="49">
+      <c r="AA34">
         <v>106.15549311799313</v>
       </c>
-      <c r="AB34" s="49">
+      <c r="AB34">
         <v>18.879231532356535</v>
       </c>
-      <c r="AC34" s="49">
+      <c r="AC34">
         <v>4.25</v>
       </c>
     </row>
@@ -14791,16 +14790,16 @@
       <c r="Y35">
         <v>325</v>
       </c>
-      <c r="Z35" s="49">
+      <c r="Z35">
         <v>93</v>
       </c>
-      <c r="AA35" s="49">
+      <c r="AA35">
         <v>277.62857142857143</v>
       </c>
-      <c r="AB35" s="49">
+      <c r="AB35">
         <v>30.847619047619048</v>
       </c>
-      <c r="AC35" s="49">
+      <c r="AC35">
         <v>9</v>
       </c>
     </row>
@@ -14870,16 +14869,16 @@
       <c r="Y36">
         <v>326</v>
       </c>
-      <c r="Z36" s="49">
+      <c r="Z36">
         <v>229</v>
       </c>
-      <c r="AA36" s="49">
+      <c r="AA36">
         <v>140.91279761904764</v>
       </c>
-      <c r="AB36" s="49">
+      <c r="AB36">
         <v>34.74146825396825</v>
       </c>
-      <c r="AC36" s="49">
+      <c r="AC36">
         <v>4</v>
       </c>
     </row>
@@ -14959,16 +14958,16 @@
       <c r="Y37">
         <v>327</v>
       </c>
-      <c r="Z37" s="49">
+      <c r="Z37">
         <v>633</v>
       </c>
-      <c r="AA37" s="49">
+      <c r="AA37">
         <v>379.13642893054657</v>
       </c>
-      <c r="AB37" s="49">
+      <c r="AB37">
         <v>42.562638933778643</v>
       </c>
-      <c r="AC37" s="49">
+      <c r="AC37">
         <v>9</v>
       </c>
     </row>
@@ -15048,16 +15047,16 @@
       <c r="Y38">
         <v>328</v>
       </c>
-      <c r="Z38" s="49">
+      <c r="Z38">
         <v>276.75</v>
       </c>
-      <c r="AA38" s="49">
+      <c r="AA38">
         <v>338.08679601648356</v>
       </c>
-      <c r="AB38" s="49">
+      <c r="AB38">
         <v>27.863120937477554</v>
       </c>
-      <c r="AC38" s="49">
+      <c r="AC38">
         <v>10.625</v>
       </c>
     </row>
@@ -15137,16 +15136,16 @@
       <c r="Y39">
         <v>329</v>
       </c>
-      <c r="Z39" s="49">
+      <c r="Z39">
         <v>178.6</v>
       </c>
-      <c r="AA39" s="49">
+      <c r="AA39">
         <v>270.88074346405227</v>
       </c>
-      <c r="AB39" s="49">
+      <c r="AB39">
         <v>28.879385638870936</v>
       </c>
-      <c r="AC39" s="49">
+      <c r="AC39">
         <v>9.9</v>
       </c>
     </row>
@@ -15226,16 +15225,16 @@
       <c r="Y40">
         <v>330</v>
       </c>
-      <c r="Z40" s="49">
+      <c r="Z40">
         <v>165</v>
       </c>
-      <c r="AA40" s="49">
+      <c r="AA40">
         <v>204.65077850050278</v>
       </c>
-      <c r="AB40" s="49">
+      <c r="AB40">
         <v>26.440402683509305</v>
       </c>
-      <c r="AC40" s="49">
+      <c r="AC40">
         <v>7.125</v>
       </c>
     </row>
@@ -15315,16 +15314,16 @@
       <c r="Y41">
         <v>331</v>
       </c>
-      <c r="Z41" s="49">
+      <c r="Z41">
         <v>126</v>
       </c>
-      <c r="AA41" s="49">
+      <c r="AA41">
         <v>117.79583333333335</v>
       </c>
-      <c r="AB41" s="49">
+      <c r="AB41">
         <v>25.953472222222224</v>
       </c>
-      <c r="AC41" s="49">
+      <c r="AC41">
         <v>4</v>
       </c>
     </row>
@@ -15404,16 +15403,16 @@
       <c r="Y42">
         <v>333</v>
       </c>
-      <c r="Z42" s="49">
+      <c r="Z42">
         <v>269</v>
       </c>
-      <c r="AA42" s="49">
+      <c r="AA42">
         <v>237.28589743589743</v>
       </c>
-      <c r="AB42" s="49">
+      <c r="AB42">
         <v>29.660737179487178</v>
       </c>
-      <c r="AC42" s="49">
+      <c r="AC42">
         <v>8</v>
       </c>
     </row>
@@ -15493,16 +15492,16 @@
       <c r="Y43">
         <v>334</v>
       </c>
-      <c r="Z43" s="49">
+      <c r="Z43">
         <v>329.5</v>
       </c>
-      <c r="AA43" s="49">
+      <c r="AA43">
         <v>389.05449810606058</v>
       </c>
-      <c r="AB43" s="49">
+      <c r="AB43">
         <v>42.867469509657013</v>
       </c>
-      <c r="AC43" s="49">
+      <c r="AC43">
         <v>10</v>
       </c>
     </row>
@@ -15582,16 +15581,16 @@
       <c r="Y44">
         <v>335</v>
       </c>
-      <c r="Z44" s="49">
+      <c r="Z44">
         <v>731.25</v>
       </c>
-      <c r="AA44" s="49">
+      <c r="AA44">
         <v>648.42384646603398</v>
       </c>
-      <c r="AB44" s="49">
+      <c r="AB44">
         <v>55.694194728291578</v>
       </c>
-      <c r="AC44" s="49">
+      <c r="AC44">
         <v>11.5</v>
       </c>
     </row>
@@ -15671,16 +15670,16 @@
       <c r="Y45">
         <v>336</v>
       </c>
-      <c r="Z45" s="49">
+      <c r="Z45">
         <v>351</v>
       </c>
-      <c r="AA45" s="49">
+      <c r="AA45">
         <v>697.68058654688105</v>
       </c>
-      <c r="AB45" s="49">
+      <c r="AB45">
         <v>52.778664961377217</v>
       </c>
-      <c r="AC45" s="49">
+      <c r="AC45">
         <v>11.4</v>
       </c>
     </row>
@@ -15760,16 +15759,16 @@
       <c r="Y46">
         <v>337</v>
       </c>
-      <c r="Z46" s="49">
+      <c r="Z46">
         <v>647.25</v>
       </c>
-      <c r="AA46" s="49">
+      <c r="AA46">
         <v>764.43549895608999</v>
       </c>
-      <c r="AB46" s="49">
+      <c r="AB46">
         <v>58.558146906849728</v>
       </c>
-      <c r="AC46" s="49">
+      <c r="AC46">
         <v>11.125</v>
       </c>
     </row>
@@ -15849,16 +15848,16 @@
       <c r="Y47">
         <v>338</v>
       </c>
-      <c r="Z47" s="49">
+      <c r="Z47">
         <v>899</v>
       </c>
-      <c r="AA47" s="49">
+      <c r="AA47">
         <v>594.60478006610731</v>
       </c>
-      <c r="AB47" s="49">
+      <c r="AB47">
         <v>82.006643874178195</v>
       </c>
-      <c r="AC47" s="49">
+      <c r="AC47">
         <v>7.5</v>
       </c>
     </row>
@@ -15938,16 +15937,16 @@
       <c r="Y48">
         <v>340</v>
       </c>
-      <c r="Z48" s="49">
+      <c r="Z48">
         <v>515</v>
       </c>
-      <c r="AA48" s="49">
+      <c r="AA48">
         <v>352.05555555555549</v>
       </c>
-      <c r="AB48" s="49">
+      <c r="AB48">
         <v>37.058479532163737</v>
       </c>
-      <c r="AC48" s="49">
+      <c r="AC48">
         <v>9.5</v>
       </c>
     </row>
@@ -16027,16 +16026,16 @@
       <c r="Y49">
         <v>341</v>
       </c>
-      <c r="Z49" s="49">
+      <c r="Z49">
         <v>708.5</v>
       </c>
-      <c r="AA49" s="49">
+      <c r="AA49">
         <v>604.622589869281</v>
       </c>
-      <c r="AB49" s="49">
+      <c r="AB49">
         <v>41.489879249147819</v>
       </c>
-      <c r="AC49" s="49">
+      <c r="AC49">
         <v>15</v>
       </c>
     </row>
@@ -16116,16 +16115,16 @@
       <c r="Y50">
         <v>342</v>
       </c>
-      <c r="Z50" s="49">
+      <c r="Z50">
         <v>480.5</v>
       </c>
-      <c r="AA50" s="49">
+      <c r="AA50">
         <v>440.63786668375485</v>
       </c>
-      <c r="AB50" s="49">
+      <c r="AB50">
         <v>37.866688708822991</v>
       </c>
-      <c r="AC50" s="49">
+      <c r="AC50">
         <v>10.125</v>
       </c>
     </row>
@@ -16206,16 +16205,16 @@
       <c r="Y51">
         <v>343</v>
       </c>
-      <c r="Z51" s="49">
+      <c r="Z51">
         <v>485</v>
       </c>
-      <c r="AA51" s="49">
+      <c r="AA51">
         <v>521.55039106673371</v>
       </c>
-      <c r="AB51" s="49">
+      <c r="AB51">
         <v>37.847748870375149</v>
       </c>
-      <c r="AC51" s="49">
+      <c r="AC51">
         <v>13.5</v>
       </c>
     </row>
@@ -16295,16 +16294,16 @@
       <c r="Y52">
         <v>344</v>
       </c>
-      <c r="Z52" s="49">
+      <c r="Z52">
         <v>751</v>
       </c>
-      <c r="AA52" s="49">
+      <c r="AA52">
         <v>814.51196067004878</v>
       </c>
-      <c r="AB52" s="49">
+      <c r="AB52">
         <v>49.274776271611309</v>
       </c>
-      <c r="AC52" s="49">
+      <c r="AC52">
         <v>16.333333333333332</v>
       </c>
     </row>
@@ -16384,16 +16383,16 @@
       <c r="Y53">
         <v>345</v>
       </c>
-      <c r="Z53" s="49">
+      <c r="Z53">
         <v>274</v>
       </c>
-      <c r="AA53" s="49">
+      <c r="AA53">
         <v>342.69186972447841</v>
       </c>
-      <c r="AB53" s="49">
+      <c r="AB53">
         <v>50.951524924351006</v>
       </c>
-      <c r="AC53" s="49">
+      <c r="AC53">
         <v>7</v>
       </c>
     </row>
@@ -16473,16 +16472,16 @@
       <c r="Y54">
         <v>348</v>
       </c>
-      <c r="Z54" s="49">
+      <c r="Z54">
         <v>711</v>
       </c>
-      <c r="AA54" s="49">
+      <c r="AA54">
         <v>502.46838235294126</v>
       </c>
-      <c r="AB54" s="49">
+      <c r="AB54">
         <v>45.678943850267387</v>
       </c>
-      <c r="AC54" s="49">
+      <c r="AC54">
         <v>11</v>
       </c>
     </row>
@@ -16562,16 +16561,16 @@
       <c r="Y55">
         <v>349</v>
       </c>
-      <c r="Z55" s="49">
+      <c r="Z55">
         <v>981</v>
       </c>
-      <c r="AA55" s="49">
+      <c r="AA55">
         <v>835.04985516934062</v>
       </c>
-      <c r="AB55" s="49">
+      <c r="AB55">
         <v>51.936427053338818</v>
       </c>
-      <c r="AC55" s="49">
+      <c r="AC55">
         <v>16.5</v>
       </c>
     </row>
@@ -16651,16 +16650,16 @@
       <c r="Y56">
         <v>350</v>
       </c>
-      <c r="Z56" s="49">
+      <c r="Z56">
         <v>415.66666666666669</v>
       </c>
-      <c r="AA56" s="49">
+      <c r="AA56">
         <v>883.38934080625256</v>
       </c>
-      <c r="AB56" s="49">
+      <c r="AB56">
         <v>53.550891951186067</v>
       </c>
-      <c r="AC56" s="49">
+      <c r="AC56">
         <v>16.5</v>
       </c>
     </row>
@@ -16740,16 +16739,16 @@
       <c r="Y57">
         <v>351</v>
       </c>
-      <c r="Z57" s="49">
+      <c r="Z57">
         <v>422.75</v>
       </c>
-      <c r="AA57" s="49">
+      <c r="AA57">
         <v>648.92448069495867</v>
       </c>
-      <c r="AB57" s="49">
+      <c r="AB57">
         <v>51.211069016552763</v>
       </c>
-      <c r="AC57" s="49">
+      <c r="AC57">
         <v>12.125</v>
       </c>
     </row>
@@ -16829,16 +16828,16 @@
       <c r="Y58">
         <v>352</v>
       </c>
-      <c r="Z58" s="49">
+      <c r="Z58">
         <v>498</v>
       </c>
-      <c r="AA58" s="49">
+      <c r="AA58">
         <v>420.63010285036603</v>
       </c>
-      <c r="AB58" s="49">
+      <c r="AB58">
         <v>53.05511073864789</v>
       </c>
-      <c r="AC58" s="49">
+      <c r="AC58">
         <v>8.5</v>
       </c>
     </row>
@@ -16918,16 +16917,16 @@
       <c r="Y59">
         <v>353</v>
       </c>
-      <c r="Z59" s="49">
+      <c r="Z59">
         <v>617</v>
       </c>
-      <c r="AA59" s="49">
+      <c r="AA59">
         <v>414.58639256340496</v>
       </c>
-      <c r="AB59" s="49">
+      <c r="AB59">
         <v>63.96144181755637</v>
       </c>
-      <c r="AC59" s="49">
+      <c r="AC59">
         <v>6.25</v>
       </c>
     </row>
@@ -17007,16 +17006,16 @@
       <c r="Y60">
         <v>354</v>
       </c>
-      <c r="Z60" s="49">
+      <c r="Z60">
         <v>447.5</v>
       </c>
-      <c r="AA60" s="49">
+      <c r="AA60">
         <v>838.11885026737968</v>
       </c>
-      <c r="AB60" s="49">
+      <c r="AB60">
         <v>55.910412953060018</v>
       </c>
-      <c r="AC60" s="49">
+      <c r="AC60">
         <v>13</v>
       </c>
     </row>
@@ -17096,16 +17095,16 @@
       <c r="Y61">
         <v>355</v>
       </c>
-      <c r="Z61" s="49">
+      <c r="Z61">
         <v>739.66666666666663</v>
       </c>
-      <c r="AA61" s="49">
+      <c r="AA61">
         <v>789.18387799564277</v>
       </c>
-      <c r="AB61" s="49">
+      <c r="AB61">
         <v>69.573118439294916</v>
       </c>
-      <c r="AC61" s="49">
+      <c r="AC61">
         <v>12.666666666666666</v>
       </c>
     </row>
@@ -17185,16 +17184,16 @@
       <c r="Y62">
         <v>356</v>
       </c>
-      <c r="Z62" s="49">
+      <c r="Z62">
         <v>1011.75</v>
       </c>
-      <c r="AA62" s="49">
+      <c r="AA62">
         <v>902.3576110368391</v>
       </c>
-      <c r="AB62" s="49">
+      <c r="AB62">
         <v>65.440610609774211</v>
       </c>
-      <c r="AC62" s="49">
+      <c r="AC62">
         <v>13.875</v>
       </c>
     </row>
@@ -17274,16 +17273,16 @@
       <c r="Y63">
         <v>357</v>
       </c>
-      <c r="Z63" s="49">
+      <c r="Z63">
         <v>746</v>
       </c>
-      <c r="AA63" s="49">
+      <c r="AA63">
         <v>1081.7887391067541</v>
       </c>
-      <c r="AB63" s="49">
+      <c r="AB63">
         <v>59.343719672212323</v>
       </c>
-      <c r="AC63" s="49">
+      <c r="AC63">
         <v>15.666666666666666</v>
       </c>
     </row>
@@ -17363,16 +17362,16 @@
       <c r="Y64">
         <v>358</v>
       </c>
-      <c r="Z64" s="49">
+      <c r="Z64">
         <v>452.33333333333331</v>
       </c>
-      <c r="AA64" s="49">
+      <c r="AA64">
         <v>672.15063131313138</v>
       </c>
-      <c r="AB64" s="49">
+      <c r="AB64">
         <v>66.367443606230367</v>
       </c>
-      <c r="AC64" s="49">
+      <c r="AC64">
         <v>10.5</v>
       </c>
     </row>
@@ -17451,16 +17450,16 @@
       <c r="Y65">
         <v>359</v>
       </c>
-      <c r="Z65" s="49">
+      <c r="Z65">
         <v>381</v>
       </c>
-      <c r="AA65" s="49">
+      <c r="AA65">
         <v>401.05045995670997</v>
       </c>
-      <c r="AB65" s="49">
+      <c r="AB65">
         <v>51.101900703463201</v>
       </c>
-      <c r="AC65" s="49">
+      <c r="AC65">
         <v>8</v>
       </c>
     </row>
@@ -17539,16 +17538,16 @@
       <c r="Y66">
         <v>360</v>
       </c>
-      <c r="Z66" s="49">
+      <c r="Z66">
         <v>305</v>
       </c>
-      <c r="AA66" s="49">
+      <c r="AA66">
         <v>491.60714285714283</v>
       </c>
-      <c r="AB66" s="49">
+      <c r="AB66">
         <v>49.160714285714285</v>
       </c>
-      <c r="AC66" s="49">
+      <c r="AC66">
         <v>10</v>
       </c>
     </row>
@@ -17627,16 +17626,16 @@
       <c r="Y67">
         <v>361</v>
       </c>
-      <c r="Z67" s="49">
+      <c r="Z67">
         <v>158</v>
       </c>
-      <c r="AA67" s="49">
+      <c r="AA67">
         <v>136.1875</v>
       </c>
-      <c r="AB67" s="49">
+      <c r="AB67">
         <v>31.926995798319325</v>
       </c>
-      <c r="AC67" s="49">
+      <c r="AC67">
         <v>5.75</v>
       </c>
     </row>
@@ -17715,16 +17714,16 @@
       <c r="Y68">
         <v>362</v>
       </c>
-      <c r="Z68" s="49">
+      <c r="Z68">
         <v>235</v>
       </c>
-      <c r="AA68" s="49">
+      <c r="AA68">
         <v>205.70588235294113</v>
       </c>
-      <c r="AB68" s="49">
+      <c r="AB68">
         <v>14.693277310924367</v>
       </c>
-      <c r="AC68" s="49">
+      <c r="AC68">
         <v>14</v>
       </c>
     </row>
@@ -17803,16 +17802,16 @@
       <c r="Y69">
         <v>363</v>
       </c>
-      <c r="Z69" s="49">
+      <c r="Z69">
         <v>126.5</v>
       </c>
-      <c r="AA69" s="49">
+      <c r="AA69">
         <v>99.423305860805868</v>
       </c>
-      <c r="AB69" s="49">
+      <c r="AB69">
         <v>12.085100193923722</v>
       </c>
-      <c r="AC69" s="49">
+      <c r="AC69">
         <v>8.5416666666666679</v>
       </c>
     </row>
@@ -17891,16 +17890,16 @@
       <c r="Y70">
         <v>364</v>
       </c>
-      <c r="Z70" s="49">
+      <c r="Z70">
         <v>43</v>
       </c>
-      <c r="AA70" s="49">
+      <c r="AA70">
         <v>123.2</v>
       </c>
-      <c r="AB70" s="49">
+      <c r="AB70">
         <v>9.476923076923077</v>
       </c>
-      <c r="AC70" s="49">
+      <c r="AC70">
         <v>13</v>
       </c>
     </row>
@@ -17979,16 +17978,16 @@
       <c r="Y71">
         <v>365</v>
       </c>
-      <c r="Z71" s="49">
+      <c r="Z71">
         <v>134</v>
       </c>
-      <c r="AA71" s="49">
+      <c r="AA71">
         <v>141.56604506604504</v>
       </c>
-      <c r="AB71" s="49">
+      <c r="AB71">
         <v>21.577566877566877</v>
       </c>
-      <c r="AC71" s="49">
+      <c r="AC71">
         <v>6</v>
       </c>
     </row>
@@ -18067,16 +18066,16 @@
       <c r="Y72">
         <v>366</v>
       </c>
-      <c r="Z72" s="49">
+      <c r="Z72">
         <v>117</v>
       </c>
-      <c r="AA72" s="49">
+      <c r="AA72">
         <v>189.96862026862024</v>
       </c>
-      <c r="AB72" s="49">
+      <c r="AB72">
         <v>21.577566877566877</v>
       </c>
-      <c r="AC72" s="49">
+      <c r="AC72">
         <v>6</v>
       </c>
     </row>
@@ -18146,16 +18145,16 @@
       <c r="Y73">
         <v>367</v>
       </c>
-      <c r="Z73" s="49">
+      <c r="Z73">
         <v>247</v>
       </c>
-      <c r="AA73" s="49">
+      <c r="AA73">
         <v>303.10389610389609</v>
       </c>
-      <c r="AB73" s="49">
+      <c r="AB73">
         <v>33.678210678210675</v>
       </c>
-      <c r="AC73" s="49">
+      <c r="AC73">
         <v>9</v>
       </c>
     </row>
@@ -18234,16 +18233,16 @@
       <c r="Y74">
         <v>368</v>
       </c>
-      <c r="Z74" s="49">
+      <c r="Z74">
         <v>157</v>
       </c>
-      <c r="AA74" s="49">
+      <c r="AA74">
         <v>101.03463203463203</v>
       </c>
-      <c r="AB74" s="49">
+      <c r="AB74">
         <v>33.678210678210675</v>
       </c>
-      <c r="AC74" s="49">
+      <c r="AC74">
         <v>3</v>
       </c>
     </row>
@@ -18322,16 +18321,16 @@
       <c r="Y75">
         <v>372</v>
       </c>
-      <c r="Z75" s="49">
+      <c r="Z75">
         <v>115</v>
       </c>
-      <c r="AA75" s="49">
+      <c r="AA75">
         <v>107.90848214285715</v>
       </c>
-      <c r="AB75" s="49">
+      <c r="AB75">
         <v>23.979662698412699</v>
       </c>
-      <c r="AC75" s="49">
+      <c r="AC75">
         <v>4.5</v>
       </c>
     </row>
@@ -18410,16 +18409,16 @@
       <c r="Y76">
         <v>373</v>
       </c>
-      <c r="Z76" s="49">
+      <c r="Z76">
         <v>177</v>
       </c>
-      <c r="AA76" s="49">
+      <c r="AA76">
         <v>191.8373015873016</v>
       </c>
-      <c r="AB76" s="49">
+      <c r="AB76">
         <v>23.979662698412699</v>
       </c>
-      <c r="AC76" s="49">
+      <c r="AC76">
         <v>8</v>
       </c>
     </row>
@@ -18498,16 +18497,16 @@
       <c r="Y77">
         <v>374</v>
       </c>
-      <c r="Z77" s="49">
+      <c r="Z77">
         <v>137</v>
       </c>
-      <c r="AA77" s="49">
+      <c r="AA77">
         <v>167.85763888888889</v>
       </c>
-      <c r="AB77" s="49">
+      <c r="AB77">
         <v>23.979662698412699</v>
       </c>
-      <c r="AC77" s="49">
+      <c r="AC77">
         <v>7</v>
       </c>
     </row>
@@ -18586,16 +18585,16 @@
       <c r="Y78">
         <v>375</v>
       </c>
-      <c r="Z78" s="49">
+      <c r="Z78">
         <v>86</v>
       </c>
-      <c r="AA78" s="49">
+      <c r="AA78">
         <v>71.938988095238102</v>
       </c>
-      <c r="AB78" s="49">
+      <c r="AB78">
         <v>23.979662698412699</v>
       </c>
-      <c r="AC78" s="49">
+      <c r="AC78">
         <v>3</v>
       </c>
     </row>
@@ -18674,16 +18673,16 @@
       <c r="Y79">
         <v>379</v>
       </c>
-      <c r="Z79" s="49">
+      <c r="Z79">
         <v>64</v>
       </c>
-      <c r="AA79" s="49">
+      <c r="AA79">
         <v>49.75</v>
       </c>
-      <c r="AB79" s="49">
+      <c r="AB79">
         <v>16.583333333333332</v>
       </c>
-      <c r="AC79" s="49">
+      <c r="AC79">
         <v>3</v>
       </c>
     </row>
@@ -18763,16 +18762,16 @@
       <c r="Y80">
         <v>380</v>
       </c>
-      <c r="Z80" s="49">
+      <c r="Z80">
         <v>18</v>
       </c>
-      <c r="AA80" s="49">
+      <c r="AA80">
         <v>49.75</v>
       </c>
-      <c r="AB80" s="49">
+      <c r="AB80">
         <v>16.583333333333332</v>
       </c>
-      <c r="AC80" s="49">
+      <c r="AC80">
         <v>3</v>
       </c>
     </row>
@@ -18852,16 +18851,16 @@
       <c r="Y81">
         <v>381</v>
       </c>
-      <c r="Z81" s="49">
+      <c r="Z81">
         <v>34</v>
       </c>
-      <c r="AA81" s="49">
+      <c r="AA81">
         <v>33.166666666666664</v>
       </c>
-      <c r="AB81" s="49">
+      <c r="AB81">
         <v>16.583333333333332</v>
       </c>
-      <c r="AC81" s="49">
+      <c r="AC81">
         <v>2</v>
       </c>
     </row>
@@ -18941,16 +18940,16 @@
       <c r="Y82">
         <v>382</v>
       </c>
-      <c r="Z82" s="49">
+      <c r="Z82">
         <v>22</v>
       </c>
-      <c r="AA82" s="49">
+      <c r="AA82">
         <v>16.583333333333332</v>
       </c>
-      <c r="AB82" s="49">
+      <c r="AB82">
         <v>16.583333333333332</v>
       </c>
-      <c r="AC82" s="49">
+      <c r="AC82">
         <v>1</v>
       </c>
     </row>

--- a/Data/Nisqually/Nisqually_Fishery_Data_from_Craig.xlsx
+++ b/Data/Nisqually/Nisqually_Fishery_Data_from_Craig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Allyn\Documents\GitHub\PinnipedCaseStudies\Data\Nisqually\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3C935D-2ACF-4CB7-8B2D-F03FD1BC2BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291BDA2D-2940-43B7-AB88-117F2200D07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5940" windowWidth="24720" windowHeight="14355" activeTab="1" xr2:uid="{5A32437D-017A-4A41-BC77-A14D66A07C16}"/>
+    <workbookView xWindow="2235" yWindow="930" windowWidth="24720" windowHeight="14355" xr2:uid="{5A32437D-017A-4A41-BC77-A14D66A07C16}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinook catch split " sheetId="2" r:id="rId1"/>
@@ -722,7 +722,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,6 +824,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9580,7 +9581,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E06806EC-1D35-49F8-8558-1F7DE99FC576}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="Y27:AC82" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="Y27:AC81" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
       <extLst>
@@ -9687,7 +9688,7 @@
         <item h="1" x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="8"/>
-        <item x="9"/>
+        <item h="1" x="9"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
@@ -9816,7 +9817,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="55">
+  <rowItems count="54">
     <i>
       <x v="1"/>
     </i>
@@ -9942,9 +9943,6 @@
     </i>
     <i>
       <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
     </i>
     <i>
       <x v="48"/>
@@ -10323,8 +10321,8 @@
   </sheetPr>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11810,8 +11808,8 @@
   </sheetPr>
   <dimension ref="A1:AC430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14016,7 +14014,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26">
         <f>SUM(Z28:Z93)</f>
-        <v>18298.116666666669</v>
+        <v>17410.083333333336</v>
       </c>
       <c r="AC26"/>
     </row>
@@ -14183,16 +14181,16 @@
       <c r="Y28">
         <v>318</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="49">
         <v>57</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="49">
         <v>48.65625</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="49">
         <v>10.8125</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="49">
         <v>4.5</v>
       </c>
     </row>
@@ -14271,16 +14269,16 @@
       <c r="Y29">
         <v>319</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="49">
         <v>24.5</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="49">
         <v>40.09375</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="49">
         <v>7.9583333333333339</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="49">
         <v>4.5</v>
       </c>
     </row>
@@ -14359,16 +14357,16 @@
       <c r="Y30">
         <v>320</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="49">
         <v>79</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="49">
         <v>79.050000000000011</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="49">
         <v>12.53402777777778</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="49">
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -14447,17 +14445,17 @@
       <c r="Y31">
         <v>321</v>
       </c>
-      <c r="Z31">
-        <v>115.2</v>
-      </c>
-      <c r="AA31">
-        <v>101.49973484848485</v>
-      </c>
-      <c r="AB31">
-        <v>16.142532051282053</v>
-      </c>
-      <c r="AC31">
-        <v>5</v>
+      <c r="Z31" s="49">
+        <v>86</v>
+      </c>
+      <c r="AA31" s="49">
+        <v>83.31302083333334</v>
+      </c>
+      <c r="AB31" s="49">
+        <v>13.476373106060606</v>
+      </c>
+      <c r="AC31" s="49">
+        <v>4.625</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -14535,17 +14533,17 @@
       <c r="Y32">
         <v>322</v>
       </c>
-      <c r="Z32">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="AA32">
-        <v>109.0847356809857</v>
-      </c>
-      <c r="AB32">
-        <v>14.291778083028083</v>
-      </c>
-      <c r="AC32">
-        <v>6.3</v>
+      <c r="Z32" s="49">
+        <v>50</v>
+      </c>
+      <c r="AA32" s="49">
+        <v>62.636208062770571</v>
+      </c>
+      <c r="AB32" s="49">
+        <v>11.162930645743145</v>
+      </c>
+      <c r="AC32" s="49">
+        <v>5.125</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -14614,17 +14612,17 @@
       <c r="Y33">
         <v>323</v>
       </c>
-      <c r="Z33">
-        <v>70.8</v>
-      </c>
-      <c r="AA33">
-        <v>115.62273483460986</v>
-      </c>
-      <c r="AB33">
-        <v>19.440468559218562</v>
-      </c>
-      <c r="AC33">
-        <v>5.9</v>
+      <c r="Z33" s="49">
+        <v>58.75</v>
+      </c>
+      <c r="AA33" s="49">
+        <v>77.510498962842718</v>
+      </c>
+      <c r="AB33" s="49">
+        <v>17.598793740981243</v>
+      </c>
+      <c r="AC33" s="49">
+        <v>4.875</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -14702,17 +14700,17 @@
       <c r="Y34">
         <v>324</v>
       </c>
-      <c r="Z34">
-        <v>133.5</v>
-      </c>
-      <c r="AA34">
-        <v>106.15549311799313</v>
-      </c>
-      <c r="AB34">
-        <v>18.879231532356535</v>
-      </c>
-      <c r="AC34">
-        <v>4.25</v>
+      <c r="Z34" s="49">
+        <v>135</v>
+      </c>
+      <c r="AA34" s="49">
+        <v>114.73348965848966</v>
+      </c>
+      <c r="AB34" s="49">
+        <v>16.2365860990861</v>
+      </c>
+      <c r="AC34" s="49">
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -14790,16 +14788,16 @@
       <c r="Y35">
         <v>325</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="49">
         <v>93</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="49">
         <v>277.62857142857143</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="49">
         <v>30.847619047619048</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="49">
         <v>9</v>
       </c>
     </row>
@@ -14869,16 +14867,16 @@
       <c r="Y36">
         <v>326</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="49">
         <v>229</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" s="49">
         <v>140.91279761904764</v>
       </c>
-      <c r="AB36">
+      <c r="AB36" s="49">
         <v>34.74146825396825</v>
       </c>
-      <c r="AC36">
+      <c r="AC36" s="49">
         <v>4</v>
       </c>
     </row>
@@ -14958,16 +14956,16 @@
       <c r="Y37">
         <v>327</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="49">
         <v>633</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="49">
         <v>379.13642893054657</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" s="49">
         <v>42.562638933778643</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="49">
         <v>9</v>
       </c>
     </row>
@@ -15047,17 +15045,17 @@
       <c r="Y38">
         <v>328</v>
       </c>
-      <c r="Z38">
-        <v>276.75</v>
-      </c>
-      <c r="AA38">
-        <v>338.08679601648356</v>
-      </c>
-      <c r="AB38">
-        <v>27.863120937477554</v>
-      </c>
-      <c r="AC38">
-        <v>10.625</v>
+      <c r="Z38" s="49">
+        <v>299</v>
+      </c>
+      <c r="AA38" s="49">
+        <v>400.21572802197807</v>
+      </c>
+      <c r="AB38" s="49">
+        <v>30.829994583303407</v>
+      </c>
+      <c r="AC38" s="49">
+        <v>11.5</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -15136,17 +15134,17 @@
       <c r="Y39">
         <v>329</v>
       </c>
-      <c r="Z39">
-        <v>178.6</v>
-      </c>
-      <c r="AA39">
-        <v>270.88074346405227</v>
-      </c>
-      <c r="AB39">
-        <v>28.879385638870936</v>
-      </c>
-      <c r="AC39">
-        <v>9.9</v>
+      <c r="Z39" s="49">
+        <v>205</v>
+      </c>
+      <c r="AA39" s="49">
+        <v>291.19467933006536</v>
+      </c>
+      <c r="AB39" s="49">
+        <v>31.35860704858867</v>
+      </c>
+      <c r="AC39" s="49">
+        <v>9.875</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -15225,17 +15223,17 @@
       <c r="Y40">
         <v>330</v>
       </c>
-      <c r="Z40">
-        <v>165</v>
-      </c>
-      <c r="AA40">
-        <v>204.65077850050278</v>
-      </c>
-      <c r="AB40">
-        <v>26.440402683509305</v>
-      </c>
-      <c r="AC40">
-        <v>7.125</v>
+      <c r="Z40" s="49">
+        <v>195.33333333333334</v>
+      </c>
+      <c r="AA40" s="49">
+        <v>241.26353800067037</v>
+      </c>
+      <c r="AB40" s="49">
+        <v>28.933036911345738</v>
+      </c>
+      <c r="AC40" s="49">
+        <v>7.833333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -15314,17 +15312,17 @@
       <c r="Y41">
         <v>331</v>
       </c>
-      <c r="Z41">
-        <v>126</v>
-      </c>
-      <c r="AA41">
-        <v>117.79583333333335</v>
-      </c>
-      <c r="AB41">
-        <v>25.953472222222224</v>
-      </c>
-      <c r="AC41">
-        <v>4</v>
+      <c r="Z41" s="49">
+        <v>197</v>
+      </c>
+      <c r="AA41" s="49">
+        <v>197.66666666666669</v>
+      </c>
+      <c r="AB41" s="49">
+        <v>32.94444444444445</v>
+      </c>
+      <c r="AC41" s="49">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -15403,16 +15401,16 @@
       <c r="Y42">
         <v>333</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="49">
         <v>269</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="49">
         <v>237.28589743589743</v>
       </c>
-      <c r="AB42">
+      <c r="AB42" s="49">
         <v>29.660737179487178</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="49">
         <v>8</v>
       </c>
     </row>
@@ -15492,16 +15490,16 @@
       <c r="Y43">
         <v>334</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="49">
         <v>329.5</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="49">
         <v>389.05449810606058</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="49">
         <v>42.867469509657013</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="49">
         <v>10</v>
       </c>
     </row>
@@ -15581,17 +15579,17 @@
       <c r="Y44">
         <v>335</v>
       </c>
-      <c r="Z44">
-        <v>731.25</v>
-      </c>
-      <c r="AA44">
-        <v>648.42384646603398</v>
-      </c>
-      <c r="AB44">
-        <v>55.694194728291578</v>
-      </c>
-      <c r="AC44">
-        <v>11.5</v>
+      <c r="Z44" s="49">
+        <v>388.33333333333331</v>
+      </c>
+      <c r="AA44" s="49">
+        <v>475.39211274836276</v>
+      </c>
+      <c r="AB44" s="49">
+        <v>33.293345686176572</v>
+      </c>
+      <c r="AC44" s="49">
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -15670,17 +15668,17 @@
       <c r="Y45">
         <v>336</v>
       </c>
-      <c r="Z45">
-        <v>351</v>
-      </c>
-      <c r="AA45">
-        <v>697.68058654688105</v>
-      </c>
-      <c r="AB45">
-        <v>52.778664961377217</v>
-      </c>
-      <c r="AC45">
-        <v>11.4</v>
+      <c r="Z45" s="49">
+        <v>353</v>
+      </c>
+      <c r="AA45" s="49">
+        <v>411.23795122871411</v>
+      </c>
+      <c r="AB45" s="49">
+        <v>35.249145738062381</v>
+      </c>
+      <c r="AC45" s="49">
+        <v>10.5</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -15759,17 +15757,17 @@
       <c r="Y46">
         <v>337</v>
       </c>
-      <c r="Z46">
-        <v>647.25</v>
-      </c>
-      <c r="AA46">
-        <v>764.43549895608999</v>
-      </c>
-      <c r="AB46">
-        <v>58.558146906849728</v>
-      </c>
-      <c r="AC46">
-        <v>11.125</v>
+      <c r="Z46" s="49">
+        <v>235</v>
+      </c>
+      <c r="AA46" s="49">
+        <v>404.76362266827027</v>
+      </c>
+      <c r="AB46" s="49">
+        <v>37.111948590920782</v>
+      </c>
+      <c r="AC46" s="49">
+        <v>9.8333333333333339</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -15848,17 +15846,17 @@
       <c r="Y47">
         <v>338</v>
       </c>
-      <c r="Z47">
-        <v>899</v>
-      </c>
-      <c r="AA47">
-        <v>594.60478006610731</v>
-      </c>
-      <c r="AB47">
-        <v>82.006643874178195</v>
-      </c>
-      <c r="AC47">
-        <v>7.5</v>
+      <c r="Z47" s="49">
+        <v>693</v>
+      </c>
+      <c r="AA47" s="49">
+        <v>328.93236714975848</v>
+      </c>
+      <c r="AB47" s="49">
+        <v>41.11654589371981</v>
+      </c>
+      <c r="AC47" s="49">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -15937,16 +15935,16 @@
       <c r="Y48">
         <v>340</v>
       </c>
-      <c r="Z48">
+      <c r="Z48" s="49">
         <v>515</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" s="49">
         <v>352.05555555555549</v>
       </c>
-      <c r="AB48">
+      <c r="AB48" s="49">
         <v>37.058479532163737</v>
       </c>
-      <c r="AC48">
+      <c r="AC48" s="49">
         <v>9.5</v>
       </c>
     </row>
@@ -16026,16 +16024,16 @@
       <c r="Y49">
         <v>341</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="49">
         <v>708.5</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" s="49">
         <v>604.622589869281</v>
       </c>
-      <c r="AB49">
+      <c r="AB49" s="49">
         <v>41.489879249147819</v>
       </c>
-      <c r="AC49">
+      <c r="AC49" s="49">
         <v>15</v>
       </c>
     </row>
@@ -16115,17 +16113,17 @@
       <c r="Y50">
         <v>342</v>
       </c>
-      <c r="Z50">
-        <v>480.5</v>
-      </c>
-      <c r="AA50">
-        <v>440.63786668375485</v>
-      </c>
-      <c r="AB50">
-        <v>37.866688708822991</v>
-      </c>
-      <c r="AC50">
-        <v>10.125</v>
+      <c r="Z50" s="49">
+        <v>135.66666666666666</v>
+      </c>
+      <c r="AA50" s="49">
+        <v>306.19572700691123</v>
+      </c>
+      <c r="AB50" s="49">
+        <v>28.848808388320773</v>
+      </c>
+      <c r="AC50" s="49">
+        <v>9.1666666666666661</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -16205,17 +16203,17 @@
       <c r="Y51">
         <v>343</v>
       </c>
-      <c r="Z51">
-        <v>485</v>
-      </c>
-      <c r="AA51">
-        <v>521.55039106673371</v>
-      </c>
-      <c r="AB51">
-        <v>37.847748870375149</v>
-      </c>
-      <c r="AC51">
-        <v>13.5</v>
+      <c r="Z51" s="49">
+        <v>310.66666666666669</v>
+      </c>
+      <c r="AA51" s="49">
+        <v>262.41601081143921</v>
+      </c>
+      <c r="AB51" s="49">
+        <v>28.823555270390312</v>
+      </c>
+      <c r="AC51" s="49">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -16294,17 +16292,17 @@
       <c r="Y52">
         <v>344</v>
       </c>
-      <c r="Z52">
-        <v>751</v>
-      </c>
-      <c r="AA52">
-        <v>814.51196067004878</v>
-      </c>
-      <c r="AB52">
-        <v>49.274776271611309</v>
-      </c>
-      <c r="AC52">
-        <v>16.333333333333332</v>
+      <c r="Z52" s="49">
+        <v>708.5</v>
+      </c>
+      <c r="AA52" s="49">
+        <v>540.10447946661179</v>
+      </c>
+      <c r="AB52" s="49">
+        <v>41.451999572252134</v>
+      </c>
+      <c r="AC52" s="49">
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -16383,17 +16381,17 @@
       <c r="Y53">
         <v>345</v>
       </c>
-      <c r="Z53">
-        <v>274</v>
-      </c>
-      <c r="AA53">
-        <v>342.69186972447841</v>
-      </c>
-      <c r="AB53">
-        <v>50.951524924351006</v>
-      </c>
-      <c r="AC53">
-        <v>7</v>
+      <c r="Z53" s="49">
+        <v>180</v>
+      </c>
+      <c r="AA53" s="49">
+        <v>295.86176142697883</v>
+      </c>
+      <c r="AB53" s="49">
+        <v>36.982720178372354</v>
+      </c>
+      <c r="AC53" s="49">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -16472,16 +16470,16 @@
       <c r="Y54">
         <v>348</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="49">
         <v>711</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" s="49">
         <v>502.46838235294126</v>
       </c>
-      <c r="AB54">
+      <c r="AB54" s="49">
         <v>45.678943850267387</v>
       </c>
-      <c r="AC54">
+      <c r="AC54" s="49">
         <v>11</v>
       </c>
     </row>
@@ -16561,17 +16559,17 @@
       <c r="Y55">
         <v>349</v>
       </c>
-      <c r="Z55">
-        <v>981</v>
-      </c>
-      <c r="AA55">
-        <v>835.04985516934062</v>
-      </c>
-      <c r="AB55">
-        <v>51.936427053338818</v>
-      </c>
-      <c r="AC55">
-        <v>16.5</v>
+      <c r="Z55" s="49">
+        <v>1147</v>
+      </c>
+      <c r="AA55" s="49">
+        <v>913.57887700534775</v>
+      </c>
+      <c r="AB55" s="49">
+        <v>45.678943850267387</v>
+      </c>
+      <c r="AC55" s="49">
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -16650,17 +16648,17 @@
       <c r="Y56">
         <v>350</v>
       </c>
-      <c r="Z56">
-        <v>415.66666666666669</v>
-      </c>
-      <c r="AA56">
-        <v>883.38934080625256</v>
-      </c>
-      <c r="AB56">
-        <v>53.550891951186067</v>
-      </c>
-      <c r="AC56">
-        <v>16.5</v>
+      <c r="Z56" s="49">
+        <v>463.5</v>
+      </c>
+      <c r="AA56" s="49">
+        <v>743.14490864527636</v>
+      </c>
+      <c r="AB56" s="49">
+        <v>51.22938279857398</v>
+      </c>
+      <c r="AC56" s="49">
+        <v>14.75</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -16739,17 +16737,17 @@
       <c r="Y57">
         <v>351</v>
       </c>
-      <c r="Z57">
-        <v>422.75</v>
-      </c>
-      <c r="AA57">
-        <v>648.92448069495867</v>
-      </c>
-      <c r="AB57">
-        <v>51.211069016552763</v>
-      </c>
-      <c r="AC57">
-        <v>12.125</v>
+      <c r="Z57" s="49">
+        <v>447.33333333333331</v>
+      </c>
+      <c r="AA57" s="49">
+        <v>632.45699990097057</v>
+      </c>
+      <c r="AB57" s="49">
+        <v>48.883455269933599</v>
+      </c>
+      <c r="AC57" s="49">
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -16828,17 +16826,17 @@
       <c r="Y58">
         <v>352</v>
       </c>
-      <c r="Z58">
-        <v>498</v>
-      </c>
-      <c r="AA58">
-        <v>420.63010285036603</v>
-      </c>
-      <c r="AB58">
-        <v>53.05511073864789</v>
-      </c>
-      <c r="AC58">
-        <v>8.5</v>
+      <c r="Z58" s="49">
+        <v>622</v>
+      </c>
+      <c r="AA58" s="49">
+        <v>572.75124401913877</v>
+      </c>
+      <c r="AB58" s="49">
+        <v>50.485710979766708</v>
+      </c>
+      <c r="AC58" s="49">
+        <v>11.75</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -16917,16 +16915,16 @@
       <c r="Y59">
         <v>353</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="49">
         <v>617</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="49">
         <v>414.58639256340496</v>
       </c>
-      <c r="AB59">
+      <c r="AB59" s="49">
         <v>63.96144181755637</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="49">
         <v>6.25</v>
       </c>
     </row>
@@ -17006,16 +17004,16 @@
       <c r="Y60">
         <v>354</v>
       </c>
-      <c r="Z60">
+      <c r="Z60" s="49">
         <v>447.5</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="49">
         <v>838.11885026737968</v>
       </c>
-      <c r="AB60">
+      <c r="AB60" s="49">
         <v>55.910412953060018</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="49">
         <v>13</v>
       </c>
     </row>
@@ -17095,16 +17093,16 @@
       <c r="Y61">
         <v>355</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="49">
         <v>739.66666666666663</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="49">
         <v>789.18387799564277</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" s="49">
         <v>69.573118439294916</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="49">
         <v>12.666666666666666</v>
       </c>
     </row>
@@ -17184,17 +17182,17 @@
       <c r="Y62">
         <v>356</v>
       </c>
-      <c r="Z62">
-        <v>1011.75</v>
-      </c>
-      <c r="AA62">
-        <v>902.3576110368391</v>
-      </c>
-      <c r="AB62">
-        <v>65.440610609774211</v>
-      </c>
-      <c r="AC62">
-        <v>13.875</v>
+      <c r="Z62" s="49">
+        <v>1044.3333333333333</v>
+      </c>
+      <c r="AA62" s="49">
+        <v>990.97113289760364</v>
+      </c>
+      <c r="AB62" s="49">
+        <v>69.573118439294916</v>
+      </c>
+      <c r="AC62" s="49">
+        <v>14.5</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -17273,17 +17271,17 @@
       <c r="Y63">
         <v>357</v>
       </c>
-      <c r="Z63">
-        <v>746</v>
-      </c>
-      <c r="AA63">
-        <v>1081.7887391067541</v>
-      </c>
-      <c r="AB63">
-        <v>59.343719672212323</v>
-      </c>
-      <c r="AC63">
-        <v>15.666666666666666</v>
+      <c r="Z63" s="49">
+        <v>758</v>
+      </c>
+      <c r="AA63" s="49">
+        <v>1039.2091503267975</v>
+      </c>
+      <c r="AB63" s="49">
+        <v>62.494035947712419</v>
+      </c>
+      <c r="AC63" s="49">
+        <v>12.5</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
@@ -17362,17 +17360,17 @@
       <c r="Y64">
         <v>358</v>
       </c>
-      <c r="Z64">
-        <v>452.33333333333331</v>
-      </c>
-      <c r="AA64">
-        <v>672.15063131313138</v>
-      </c>
-      <c r="AB64">
-        <v>66.367443606230367</v>
-      </c>
-      <c r="AC64">
-        <v>10.5</v>
+      <c r="Z64" s="49">
+        <v>561</v>
+      </c>
+      <c r="AA64" s="49">
+        <v>583.88125000000002</v>
+      </c>
+      <c r="AB64" s="49">
+        <v>73.029621848739495</v>
+      </c>
+      <c r="AC64" s="49">
+        <v>7.75</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
@@ -17450,17 +17448,17 @@
       <c r="Y65">
         <v>359</v>
       </c>
-      <c r="Z65">
-        <v>381</v>
-      </c>
-      <c r="AA65">
-        <v>401.05045995670997</v>
-      </c>
-      <c r="AB65">
-        <v>51.101900703463201</v>
-      </c>
-      <c r="AC65">
-        <v>8</v>
+      <c r="Z65" s="49">
+        <v>408</v>
+      </c>
+      <c r="AA65" s="49">
+        <v>589.92857142857144</v>
+      </c>
+      <c r="AB65" s="49">
+        <v>49.160714285714285</v>
+      </c>
+      <c r="AC65" s="49">
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
@@ -17538,16 +17536,16 @@
       <c r="Y66">
         <v>360</v>
       </c>
-      <c r="Z66">
+      <c r="Z66" s="49">
         <v>305</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="49">
         <v>491.60714285714283</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" s="49">
         <v>49.160714285714285</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="49">
         <v>10</v>
       </c>
     </row>
@@ -17626,16 +17624,16 @@
       <c r="Y67">
         <v>361</v>
       </c>
-      <c r="Z67">
+      <c r="Z67" s="49">
         <v>158</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="49">
         <v>136.1875</v>
       </c>
-      <c r="AB67">
+      <c r="AB67" s="49">
         <v>31.926995798319325</v>
       </c>
-      <c r="AC67">
+      <c r="AC67" s="49">
         <v>5.75</v>
       </c>
     </row>
@@ -17714,16 +17712,16 @@
       <c r="Y68">
         <v>362</v>
       </c>
-      <c r="Z68">
+      <c r="Z68" s="49">
         <v>235</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="49">
         <v>205.70588235294113</v>
       </c>
-      <c r="AB68">
+      <c r="AB68" s="49">
         <v>14.693277310924367</v>
       </c>
-      <c r="AC68">
+      <c r="AC68" s="49">
         <v>14</v>
       </c>
     </row>
@@ -17802,17 +17800,17 @@
       <c r="Y69">
         <v>363</v>
       </c>
-      <c r="Z69">
-        <v>126.5</v>
-      </c>
-      <c r="AA69">
-        <v>99.423305860805868</v>
-      </c>
-      <c r="AB69">
-        <v>12.085100193923722</v>
-      </c>
-      <c r="AC69">
-        <v>8.5416666666666679</v>
+      <c r="Z69" s="49">
+        <v>155</v>
+      </c>
+      <c r="AA69" s="49">
+        <v>104.07738095238095</v>
+      </c>
+      <c r="AB69" s="49">
+        <v>14.693277310924367</v>
+      </c>
+      <c r="AC69" s="49">
+        <v>7.0833333333333339</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
@@ -17888,19 +17886,19 @@
         <v>305</v>
       </c>
       <c r="Y70">
-        <v>364</v>
-      </c>
-      <c r="Z70">
-        <v>43</v>
-      </c>
-      <c r="AA70">
-        <v>123.2</v>
-      </c>
-      <c r="AB70">
-        <v>9.476923076923077</v>
-      </c>
-      <c r="AC70">
-        <v>13</v>
+        <v>365</v>
+      </c>
+      <c r="Z70" s="49">
+        <v>249</v>
+      </c>
+      <c r="AA70" s="49">
+        <v>235.74747474747471</v>
+      </c>
+      <c r="AB70" s="49">
+        <v>33.678210678210675</v>
+      </c>
+      <c r="AC70" s="49">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
@@ -17976,18 +17974,18 @@
         <v>158</v>
       </c>
       <c r="Y71">
-        <v>365</v>
-      </c>
-      <c r="Z71">
-        <v>134</v>
-      </c>
-      <c r="AA71">
-        <v>141.56604506604504</v>
-      </c>
-      <c r="AB71">
+        <v>366</v>
+      </c>
+      <c r="Z71" s="49">
+        <v>117</v>
+      </c>
+      <c r="AA71" s="49">
+        <v>189.96862026862024</v>
+      </c>
+      <c r="AB71" s="49">
         <v>21.577566877566877</v>
       </c>
-      <c r="AC71">
+      <c r="AC71" s="49">
         <v>6</v>
       </c>
     </row>
@@ -18064,19 +18062,19 @@
         <v>235</v>
       </c>
       <c r="Y72">
-        <v>366</v>
-      </c>
-      <c r="Z72">
-        <v>117</v>
-      </c>
-      <c r="AA72">
-        <v>189.96862026862024</v>
-      </c>
-      <c r="AB72">
-        <v>21.577566877566877</v>
-      </c>
-      <c r="AC72">
-        <v>6</v>
+        <v>367</v>
+      </c>
+      <c r="Z72" s="49">
+        <v>247</v>
+      </c>
+      <c r="AA72" s="49">
+        <v>303.10389610389609</v>
+      </c>
+      <c r="AB72" s="49">
+        <v>33.678210678210675</v>
+      </c>
+      <c r="AC72" s="49">
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
@@ -18143,19 +18141,19 @@
         <v>155</v>
       </c>
       <c r="Y73">
-        <v>367</v>
-      </c>
-      <c r="Z73">
-        <v>247</v>
-      </c>
-      <c r="AA73">
-        <v>303.10389610389609</v>
-      </c>
-      <c r="AB73">
+        <v>368</v>
+      </c>
+      <c r="Z73" s="49">
+        <v>157</v>
+      </c>
+      <c r="AA73" s="49">
+        <v>101.03463203463203</v>
+      </c>
+      <c r="AB73" s="49">
         <v>33.678210678210675</v>
       </c>
-      <c r="AC73">
-        <v>9</v>
+      <c r="AC73" s="49">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
@@ -18231,19 +18229,19 @@
         <v>#N/A</v>
       </c>
       <c r="Y74">
-        <v>368</v>
-      </c>
-      <c r="Z74">
-        <v>157</v>
-      </c>
-      <c r="AA74">
-        <v>101.03463203463203</v>
-      </c>
-      <c r="AB74">
-        <v>33.678210678210675</v>
-      </c>
-      <c r="AC74">
-        <v>3</v>
+        <v>372</v>
+      </c>
+      <c r="Z74" s="49">
+        <v>115</v>
+      </c>
+      <c r="AA74" s="49">
+        <v>107.90848214285715</v>
+      </c>
+      <c r="AB74" s="49">
+        <v>23.979662698412699</v>
+      </c>
+      <c r="AC74" s="49">
+        <v>4.5</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
@@ -18319,19 +18317,19 @@
         <v>249</v>
       </c>
       <c r="Y75">
-        <v>372</v>
-      </c>
-      <c r="Z75">
-        <v>115</v>
-      </c>
-      <c r="AA75">
-        <v>107.90848214285715</v>
-      </c>
-      <c r="AB75">
+        <v>373</v>
+      </c>
+      <c r="Z75" s="49">
+        <v>177</v>
+      </c>
+      <c r="AA75" s="49">
+        <v>191.8373015873016</v>
+      </c>
+      <c r="AB75" s="49">
         <v>23.979662698412699</v>
       </c>
-      <c r="AC75">
-        <v>4.5</v>
+      <c r="AC75" s="49">
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
@@ -18407,19 +18405,19 @@
         <v>117</v>
       </c>
       <c r="Y76">
-        <v>373</v>
-      </c>
-      <c r="Z76">
-        <v>177</v>
-      </c>
-      <c r="AA76">
-        <v>191.8373015873016</v>
-      </c>
-      <c r="AB76">
+        <v>374</v>
+      </c>
+      <c r="Z76" s="49">
+        <v>137</v>
+      </c>
+      <c r="AA76" s="49">
+        <v>167.85763888888889</v>
+      </c>
+      <c r="AB76" s="49">
         <v>23.979662698412699</v>
       </c>
-      <c r="AC76">
-        <v>8</v>
+      <c r="AC76" s="49">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
@@ -18495,19 +18493,19 @@
         <v>247</v>
       </c>
       <c r="Y77">
-        <v>374</v>
-      </c>
-      <c r="Z77">
-        <v>137</v>
-      </c>
-      <c r="AA77">
-        <v>167.85763888888889</v>
-      </c>
-      <c r="AB77">
+        <v>375</v>
+      </c>
+      <c r="Z77" s="49">
+        <v>86</v>
+      </c>
+      <c r="AA77" s="49">
+        <v>71.938988095238102</v>
+      </c>
+      <c r="AB77" s="49">
         <v>23.979662698412699</v>
       </c>
-      <c r="AC77">
-        <v>7</v>
+      <c r="AC77" s="49">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -18583,18 +18581,18 @@
         <v>157</v>
       </c>
       <c r="Y78">
-        <v>375</v>
-      </c>
-      <c r="Z78">
-        <v>86</v>
-      </c>
-      <c r="AA78">
-        <v>71.938988095238102</v>
-      </c>
-      <c r="AB78">
-        <v>23.979662698412699</v>
-      </c>
-      <c r="AC78">
+        <v>379</v>
+      </c>
+      <c r="Z78" s="49">
+        <v>64</v>
+      </c>
+      <c r="AA78" s="49">
+        <v>49.75</v>
+      </c>
+      <c r="AB78" s="49">
+        <v>16.583333333333332</v>
+      </c>
+      <c r="AC78" s="49">
         <v>3</v>
       </c>
     </row>
@@ -18671,18 +18669,18 @@
         <v>#N/A</v>
       </c>
       <c r="Y79">
-        <v>379</v>
-      </c>
-      <c r="Z79">
-        <v>64</v>
-      </c>
-      <c r="AA79">
+        <v>380</v>
+      </c>
+      <c r="Z79" s="49">
+        <v>18</v>
+      </c>
+      <c r="AA79" s="49">
         <v>49.75</v>
       </c>
-      <c r="AB79">
+      <c r="AB79" s="49">
         <v>16.583333333333332</v>
       </c>
-      <c r="AC79">
+      <c r="AC79" s="49">
         <v>3</v>
       </c>
     </row>
@@ -18760,19 +18758,19 @@
         <v>#N/A</v>
       </c>
       <c r="Y80">
-        <v>380</v>
-      </c>
-      <c r="Z80">
-        <v>18</v>
-      </c>
-      <c r="AA80">
-        <v>49.75</v>
-      </c>
-      <c r="AB80">
+        <v>381</v>
+      </c>
+      <c r="Z80" s="49">
+        <v>34</v>
+      </c>
+      <c r="AA80" s="49">
+        <v>33.166666666666664</v>
+      </c>
+      <c r="AB80" s="49">
         <v>16.583333333333332</v>
       </c>
-      <c r="AC80">
-        <v>3</v>
+      <c r="AC80" s="49">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -18849,19 +18847,19 @@
         <v>#N/A</v>
       </c>
       <c r="Y81">
-        <v>381</v>
-      </c>
-      <c r="Z81">
-        <v>34</v>
-      </c>
-      <c r="AA81">
-        <v>33.166666666666664</v>
-      </c>
-      <c r="AB81">
+        <v>382</v>
+      </c>
+      <c r="Z81" s="49">
+        <v>22</v>
+      </c>
+      <c r="AA81" s="49">
         <v>16.583333333333332</v>
       </c>
-      <c r="AC81">
-        <v>2</v>
+      <c r="AB81" s="49">
+        <v>16.583333333333332</v>
+      </c>
+      <c r="AC81" s="49">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.25">
@@ -18937,21 +18935,7 @@
       <c r="W82">
         <v>115</v>
       </c>
-      <c r="Y82">
-        <v>382</v>
-      </c>
-      <c r="Z82">
-        <v>22</v>
-      </c>
-      <c r="AA82">
-        <v>16.583333333333332</v>
-      </c>
-      <c r="AB82">
-        <v>16.583333333333332</v>
-      </c>
-      <c r="AC82">
-        <v>1</v>
-      </c>
+      <c r="AC82"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
@@ -42138,7 +42122,7 @@
   <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
